--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,25 +488,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A. Trung Quốc.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>B. Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C. Nhật Bản.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>D. Hàn Quốc.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>A. Trung Quốc.	B. Triều Tiên.		C. Nhật Bản.		D. Hàn Quốc.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
       <c r="H2" t="n">
         <v>30</v>
       </c>
@@ -542,7 +532,9 @@
           <t>D. lực lượng Đảng Cộng sản và lực lượng Quốc dân đảng.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
       <c r="H3" t="n">
         <v>30</v>
       </c>
@@ -560,25 +552,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A. Liên Xô và Mỹ.</t>
+          <t>A. Liên Xô và Mỹ.					B. Liên Xô và thế lực thân Mỹ.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B. Liên Xô và thế lực thân Mỹ.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>C. Quốc dân Đảng và Đảng Cộng sản.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D. Quốc dân Đảng và thế lực thân Mỹ.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>C. Quốc dân Đảng và Đảng Cộng sản.		D. Quốc dân Đảng và thế lực thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
       <c r="H4" t="n">
         <v>30</v>
       </c>
@@ -650,7 +636,9 @@
           <t>D. so sánh lực lượng chênh lệch bất lợi cho Đảng Cộng sản.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
       <c r="H6" t="n">
         <v>30</v>
       </c>
@@ -668,25 +656,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A. Mao Trạch Đông.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>B. Tưởng Giới Thạch.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C. Lưu Thiếu Kỳ.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>D. Tôn Trung Sơn.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>A. Mao Trạch Đông.        B. Tưởng Giới Thạch.          C. Lưu Thiếu Kỳ.         D. Tôn Trung Sơn.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
       <c r="H7" t="n">
         <v>30</v>
       </c>
@@ -740,25 +718,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A. Tiến hành cải cách và mở cửa.</t>
+          <t>A. Tiến hành cải cách và mở cửa.			B. Lấy phát triển kinh làm trung tâm.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B. Lấy phát triển kinh làm trung tâm.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>C. Thực hiện đường lối “ba ngọn cờ hồng”.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>D. Chuyển sang kinh tế thị trường XHCN.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>C. Thực hiện đường lối “ba ngọn cờ hồng”.		D. Chuyển sang kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
       <c r="H9" t="n">
         <v>30</v>
       </c>
@@ -848,25 +820,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A. Hồng Công (1999), Ma Cao (1997).</t>
+          <t>A. Hồng Công (1999), Ma Cao (1997).          	B. Hồng Công (1999), Ma Cao (1999).</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B. Hồng Công (1999), Ma Cao (1999).</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>C. Hồng Công (1997), Ma Cao (1999).</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>D. Hồng Công (1997), Ma Cao (1997).</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>C. Hồng Công (1997), Ma Cao (1999).          	D. Hồng Công (1997), Ma Cao (1997).</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
       <c r="H12" t="n">
         <v>30</v>
       </c>
@@ -884,25 +850,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A. Hàn Quốc, Hồng Công, Ma Cao.</t>
+          <t>A. Hàn Quốc, Hồng Công, Ma Cao.			B. Hồng Công, Ma Cao, Đài Loan.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B. Hồng Công, Ma Cao, Đài Loan.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>C. Hàn Quốc, Ma Cao, Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>D. Hàn Quốc, Hồng Công, Đài Loan.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>C. Hàn Quốc, Ma Cao, Triều Tiên.			D. Hàn Quốc, Hồng Công, Đài Loan.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
       <c r="H13" t="n">
         <v>30</v>
       </c>
@@ -920,25 +880,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A. Đặng Tiểu Bình.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>B. Chu Ân Lai.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>C. Mao Trạch Đông.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>D. Lưu Thiếu Kỳ.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>A. Đặng Tiểu Bình.     B. Chu Ân Lai.      C. Mao Trạch Đông.     D. Lưu Thiếu Kỳ.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
       <c r="H14" t="n">
         <v>30</v>
       </c>
@@ -1028,25 +978,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A. năm 1945.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>B. năm 1950.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>C. năm 1954.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>D. năm 1975.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>A. năm 1945.		B. năm 1950.		C. năm 1954.		D. năm 1975.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
       <c r="H17" t="n">
         <v>30</v>
       </c>
@@ -1064,25 +1004,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A. Đài Loan.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>B. Hồng Công.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>C. Ma Cao.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>D. Nam Kinh.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>A. Đài Loan.		B. Hồng Công.	  C. Ma Cao.		D. Nam Kinh.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
       <c r="H18" t="n">
         <v>30</v>
       </c>
@@ -1100,25 +1030,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A. Dân chủ Nhân dân Trung Hoa.</t>
+          <t>A. Dân chủ Nhân dân Trung Hoa.			B. Cộng hòa Trung Hoa.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B. Cộng hòa Trung Hoa.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>C. Cộng hòa Nhân dân Trung Hoa.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>D. Cộng hòa Dân chủ Nhân dân Trung Hoa.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>C. Cộng hòa Nhân dân Trung Hoa.			D. Cộng hòa Dân chủ Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
       <c r="H19" t="n">
         <v>30</v>
       </c>
@@ -1136,25 +1060,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A. phóng thành công vệ tinh nhân tạo.</t>
+          <t>A. phóng thành công vệ tinh nhân tạo.		B. thử thành công bom nguyên tử.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B. thử thành công bom nguyên tử.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>C. phóng tàu vũ trụ Thần Châu V.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>D. phóng tàu thăm dò Mặt Trăng.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>C. phóng tàu vũ trụ Thần Châu V.			D. phóng tàu thăm dò Mặt Trăng.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
       <c r="H20" t="n">
         <v>30</v>
       </c>
@@ -1172,25 +1090,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A. Thứ hai.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>B. Thứ ba.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>C. Thứ tư.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>D. Thứ năm.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>A. Thứ hai.		B. Thứ ba.		C. Thứ tư.		D. Thứ năm.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
       <c r="H21" t="n">
         <v>30</v>
       </c>
@@ -1280,25 +1188,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A. cách mạng tư sản.</t>
+          <t>A. cách mạng tư sản.					B. chiến tranh giải phóng dân tộc.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B. chiến tranh giải phóng dân tộc.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C. cách mạng xã hội chủ nghĩa.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>D. cách mạng dân tộc dân chủ.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>C. cách mạng xã hội chủ nghĩa.			D. cách mạng dân tộc dân chủ.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
       <c r="H24" t="n">
         <v>30</v>
       </c>
@@ -1424,25 +1326,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A. Lào.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>B. Thái Lan.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>C. Mianma.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>D. Singapore.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>A. Lào.               B. Thái Lan.                   C. Mianma.                  D. Singapore.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
       <c r="H28" t="n">
         <v>30</v>
       </c>
@@ -1496,25 +1388,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A. Indonesia, Việt Nam, Lào.</t>
+          <t>A. Indonesia, Việt Nam, Lào.                                 B. Indonesia, Việt Nam, Campuchia.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B. Indonesia, Việt Nam, Campuchia.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>C. Việt Nam, Lào, Thái Lan.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>D. Việt Nam, Lào, Campuchia.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>C. Việt Nam, Lào, Thái Lan.                                  D. Việt Nam, Lào, Campuchia.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
       <c r="H30" t="n">
         <v>30</v>
       </c>
@@ -1568,25 +1454,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A. kháng chiến chống Pháp.</t>
+          <t>A. kháng chiến chống Pháp.			B. kháng chiến chống Mỹ.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B. kháng chiến chống Mỹ.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C. đấu tranh giành độc lập.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>D. xây dựng chủ nghĩa xã hội.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>C. đấu tranh giành độc lập. 				D. xây dựng chủ nghĩa xã hội.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
       <c r="H32" t="n">
         <v>30</v>
       </c>
@@ -1604,25 +1484,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A. Singapore.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>B. Malaixia.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>C. Philippines.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>D. Thái Lan.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>A. Singapore.                       B. Malaixia.                    C. Philippines.                    D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
       <c r="H33" t="n">
         <v>30</v>
       </c>
@@ -1640,25 +1510,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A. Indonesia.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>B. Singapore.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>C. Philippines.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>D. Thái Lan.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>A. Indonesia. 	  B. Singapore.                     C. Philippines.                   D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
       <c r="H34" t="n">
         <v>30</v>
       </c>
@@ -1676,25 +1536,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A. Indonesia.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>B. Brunei.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>C. Mianma.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>D. Đông Timo.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>A. Indonesia.                     B. Brunei.		C. Mianma.                  D. Đông Timo.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
       <c r="H35" t="n">
         <v>30</v>
       </c>
@@ -1712,25 +1562,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A. Đảng Nhân dân Lào.</t>
+          <t>A. Đảng Nhân dân Lào. 				B. Đảng Cộng sản Đông Dương.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B. Đảng Cộng sản Đông Dương.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>C. Liên minh Việt – Miên – Lào.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>D. Đảng Nhân dân Cách mạng Lào.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>C. Liên minh Việt – Miên – Lào. 			D. Đảng Nhân dân Cách mạng Lào.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
       <c r="H36" t="n">
         <v>30</v>
       </c>
@@ -1748,25 +1592,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A. trung lập tích cực.</t>
+          <t>A. trung lập tích cực.				B. hòa bình trung lập.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>B. hòa bình trung lập.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>C. kháng chiến chống Mỹ.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>D. kháng chiến chống Pháp.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>C. kháng chiến chống Mỹ.				D. kháng chiến chống Pháp.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
       <c r="H37" t="n">
         <v>30</v>
       </c>
@@ -1784,25 +1622,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A. Tư sản.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>B. Vô sản.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>C. Nông dân.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>D. Tiểu tư sản.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>A. Tư sản. 		B. Vô sản. 		C. Nông dân.  		     D. Tiểu tư sản.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
       <c r="H38" t="n">
         <v>30</v>
       </c>
@@ -1820,25 +1648,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A. độc lập.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>B. tự do.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>C. tự trị.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>D. tự quyết.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>A. độc lập. 		B. tự do. 		C. tự trị. 		D. tự quyết.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
       <c r="H39" t="n">
         <v>30</v>
       </c>
@@ -1928,25 +1746,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A. Miến Điện.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>B. Singapore.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>C. Brunei.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>D. Timor Leste.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>A. Miến Điện.		B. Singapore.		C. Brunei.		D. Timor Leste.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
       <c r="H42" t="n">
         <v>30</v>
       </c>
@@ -1964,25 +1772,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A. Liên bang Malaysia.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>B. Liên bang Miến Điện.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>C. Indonesia.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>D. Anh.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>A. Liên bang Malaysia.	    B. Liên bang Miến Điện.		C. Indonesia.		D. Anh.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
       <c r="H43" t="n">
         <v>30</v>
       </c>
@@ -2000,25 +1798,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A. Đảng Lao động Campuchia.</t>
+          <t>A. Đảng Lao động Campuchia.				B. Đảng Nhân dân Campuchia.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B. Đảng Nhân dân Campuchia.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>C. Đảng Dân chủ quốc gia Campuchia.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>D. Đảng Nhân dân Cách mạng Campuchia.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>C. Đảng Dân chủ quốc gia Campuchia.			D. Đảng Nhân dân Cách mạng Campuchia.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
       <c r="H44" t="n">
         <v>30</v>
       </c>
@@ -2072,25 +1864,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A. Việt Nam, Triều Tiên, Ấn Độ.</t>
+          <t>A. Việt Nam, Triều Tiên, Ấn Độ.                                   B. Hàn Quốc, Việt Nam, Ấn Độ.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B. Hàn Quốc, Việt Nam, Ấn Độ.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>C. Lào, Việt Nam, Nhật Bản.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>D. Triều Tiên, Nhật Bản, Việt Nam.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>C. Lào, Việt Nam, Nhật Bản.                                         D. Triều Tiên, Nhật Bản, Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
       <c r="H46" t="n">
         <v>30</v>
       </c>
@@ -2108,25 +1894,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A. đấu tranh chính trị.</t>
+          <t>A. đấu tranh chính trị.				B. kết hợp đấu tranh chính trị và đấu tranh vũ trang.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B. kết hợp đấu tranh chính trị và đấu tranh vũ trang.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>C. đấu tranh vũ trang.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>D. đấu tranh công khai, bí mật, hợp pháp, bất hợp pháp.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>C. đấu tranh vũ trang.				D. đấu tranh công khai, bí mật, hợp pháp, bất hợp pháp.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
       <c r="H47" t="n">
         <v>30</v>
       </c>
@@ -2144,25 +1924,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A. giai cấp công nhân và nông dân.</t>
+          <t>A. giai cấp công nhân và nông dân.			B. giai cấp tư sản và vô sản.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B. giai cấp tư sản và vô sản.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>C. giai cấp tư sản và tiểu tư sản.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>D. giai cấp tiểu tư sản và công nhân.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>C. giai cấp tư sản và tiểu tư sản.			D. giai cấp tiểu tư sản và công nhân.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
       <c r="H48" t="n">
         <v>30</v>
       </c>
@@ -2216,25 +1990,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A. Văn hóa.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>B. Kinh tế.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>C. Tôn giáo.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>D. Lãnh thổ.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>A. Văn hóa.		B. Kinh tế.		C. Tôn giáo.		D. Lãnh thổ.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
       <c r="H50" t="n">
         <v>30</v>
       </c>
@@ -2252,25 +2016,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A. “Cách mạng công nghệ”.</t>
+          <t>A. “Cách mạng công nghệ”.                 		B. “Cách mạng chất xám”.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>B. “Cách mạng chất xám”.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>C. “Cách mạng xanh”.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>D. “Cách mạng trắng”.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>C. “Cách mạng xanh”.                          		D. “Cách mạng trắng”.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
       <c r="H51" t="n">
         <v>30</v>
       </c>
@@ -2288,25 +2046,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A. máy bay lớn nhất thế giới.</t>
+          <t>A. máy bay lớn nhất thế giới. 				B. tàu thủy lớn nhất thế giới.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>B. tàu thủy lớn nhất thế giới.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>C. hóa chất lớn nhất thế giới.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>D. phần mềm lớn nhất thế giới.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>C. hóa chất lớn nhất thế giới. 				D. phần mềm lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
       <c r="H52" t="n">
         <v>30</v>
       </c>
@@ -2324,25 +2076,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A. Ấn Độ giành quyền tự trị.</t>
+          <t>A. Ấn Độ giành quyền tự trị. 				B. Ấn Độ thử thành công bom nguyên tử.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>B. Ấn Độ thử thành công bom nguyên tử.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>C. Ấn Độ phóng thành công vệ tinh nhân tạo.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>D. Ấn Độ tuyên bố độc lập.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>C. Ấn Độ phóng thành công vệ tinh nhân tạo. 	D. Ấn Độ tuyên bố độc lập.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
       <c r="H53" t="n">
         <v>30</v>
       </c>
@@ -2396,25 +2142,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A. hòa bình, trung lập tích cực.</t>
+          <t>A. hòa bình, trung lập tích cực. 			B. trung lập, tiếp nhận sự viện trợ từ mọi phía.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>B. trung lập, tiếp nhận sự viện trợ từ mọi phía.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>C. hòa bình, hữu nghị hợp tác.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>D. trung lập, không tham gia liên minh quân sự nào.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>C. hòa bình, hữu nghị hợp tác. 			D. trung lập, không tham gia liên minh quân sự nào.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
       <c r="H55" t="n">
         <v>30</v>
       </c>
@@ -2504,25 +2244,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A. Các nước thực dân tiến hành khai thác thuộc địa.</t>
+          <t>A. Các nước thực dân tiến hành khai thác thuộc địa.		B. Bị các nước đế quốc trở lại tái chiếm.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B. Bị các nước đế quốc trở lại tái chiếm.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>C. Tập trung phát triển kinh tế</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>D. Giành được độc lập.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>C. Tập trung phát triển kinh tế				D. Giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
       <c r="H58" t="n">
         <v>30</v>
       </c>
@@ -2576,25 +2310,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A. Khuynh hướng đấu tranh.</t>
+          <t>A. Khuynh hướng đấu tranh.				B. Tổ chức lãnh đạo.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>B. Tổ chức lãnh đạo.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>C. Giai cấp lãnh đạo.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>D. Hình thức đấu tranh.</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>C. Giai cấp lãnh đạo.					D. Hình thức đấu tranh.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
       <c r="H60" t="n">
         <v>30</v>
       </c>
@@ -2612,25 +2340,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A. Mozambique.</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>B. Zimbabwe.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>C. Angola.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>D. Ai Cập.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>A. Mozambique.		B. Zimbabwe. 		          C. Angola. 		D. Ai Cập.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
       <c r="H61" t="n">
         <v>30</v>
       </c>
@@ -2720,25 +2438,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A. cách mạng Ai Cập thành công (1953)</t>
+          <t>A. cách mạng Ai Cập thành công (1953)	     	B. chiến thắng Điện Biên Phủ của Việt Nam (1954).</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B. chiến thắng Điện Biên Phủ của Việt Nam (1954).</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>C. cách mạng Cuba thành công (1959).</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>D. thắng lợi của cách mạng Việt Nam (1975).</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>C. cách mạng Cuba thành công (1959).         		D. thắng lợi của cách mạng Việt Nam (1975).</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
       <c r="H64" t="n">
         <v>30</v>
       </c>
@@ -2756,25 +2468,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A. chủ nghĩa thực dân kiểu cũ.</t>
+          <t>A. chủ nghĩa thực dân kiểu cũ.                            	B. chủ nghĩa đế quốc.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B. chủ nghĩa đế quốc.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>D. chủ nghĩa thực dân kiểu mới</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>C. chủ nghĩa phân biệt chủng tộc.   			D. chủ nghĩa thực dân kiểu mới</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
       <c r="H65" t="n">
         <v>30</v>
       </c>
@@ -2828,25 +2534,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A. Châu Á.</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>B. Châu Phi.</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>C. Mỹ Latinh.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>D. Châu Âu.</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>A. Châu Á.		B. Châu Phi.		C. Mỹ Latinh.		D. Châu Âu.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
       <c r="H67" t="n">
         <v>30</v>
       </c>
@@ -2900,25 +2596,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A. Bắc Phi.</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>B. Nam Phi.</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>C. Tây Phi.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>D. Đông Phi.</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>A. Bắc Phi.		B. Nam Phi.		C. Tây Phi.		D. Đông Phi.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
       <c r="H69" t="n">
         <v>30</v>
       </c>
@@ -2936,25 +2622,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A. Mặt trận dân tộc giải phóng châu Phi.</t>
+          <t>A. Mặt trận dân tộc giải phóng châu Phi.		B. Tổ chức thống nhất châu Phi.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>B. Tổ chức thống nhất châu Phi.</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>C. Hiệp hội các nước châu Phi.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>D. Đại hội dân tộc châu Phi.</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>C. Hiệp hội các nước châu Phi.			D. Đại hội dân tộc châu Phi.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
       <c r="H70" t="n">
         <v>30</v>
       </c>
@@ -2972,25 +2652,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A. đấu tranh nghị trường.</t>
+          <t>A. đấu tranh nghị trường.				B. đấu tranh vũ trang.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>B. đấu tranh vũ trang.</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>C. đấu tranh kinh tế.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>D. đấu tranh ngoại giao.</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>C. đấu tranh kinh tế.					D. đấu tranh ngoại giao.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
       <c r="H71" t="n">
         <v>30</v>
       </c>
@@ -3008,25 +2682,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A. những năm 30  của thế kỉ XX.</t>
+          <t>A. những năm 30  của thế kỉ XX.			B. những năm 40 của thế kỉ XX.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>B. những năm 40 của thế kỉ XX.</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>C. những năm 50 của thế kỉ XX.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>D. những năm 60 của thế kỉ XX.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>C. những năm 50 của thế kỉ XX.			D. những năm 60 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
       <c r="H72" t="n">
         <v>30</v>
       </c>
@@ -3080,25 +2748,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A. Ghine.</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>B. Angola.</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>C. Namibia.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>D. Maroc.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>A. Ghine.		B. Angola.		C. Namibia.		D. Maroc.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
       <c r="H74" t="n">
         <v>30</v>
       </c>
@@ -3116,25 +2774,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A. Thabo Mbeki.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>B. Nelson Mandela.</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>C. Jacob Zuma.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>D. Frederik de Klerk.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>A. Thabo Mbeki.	   B. Nelson Mandela. 		C. Jacob Zuma.	D. Frederik de Klerk.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
       <c r="H75" t="n">
         <v>30</v>
       </c>
@@ -3188,25 +2836,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A. thực dân Anh.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>B. thực dân Pháp.</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>C. đế quốc Mỹ.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>D. thực dân Hà Lan.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>A. thực dân Anh.	    B. thực dân Pháp.		C. đế quốc Mỹ.	  D. thực dân Hà Lan.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
       <c r="H77" t="n">
         <v>30</v>
       </c>
@@ -3224,25 +2862,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A. chế độ phân biệt chủng tộc.</t>
+          <t>A. chế độ phân biệt chủng tộc.			B. chủ nghĩa thực dân cũ.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>B. chủ nghĩa thực dân cũ.</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>C. chủ nghĩa đế quốc.</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>D. chế độ độc tài thân Mỹ.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>C. chủ nghĩa đế quốc.					D. chế độ độc tài thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
       <c r="H78" t="n">
         <v>30</v>
       </c>
@@ -3260,25 +2892,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A. đấu tranh vũ trang.</t>
+          <t>A. đấu tranh vũ trang.				B. kết hợp đấu tranh chính trị với đấu tranh vũ trang.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>B. kết hợp đấu tranh chính trị với đấu tranh vũ trang.</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>C. đấu tranh chính trị.</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>D. kết hợp bãi công của công nhân với đấu tranh chính trị.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>C. đấu tranh chính trị.				D. kết hợp bãi công của công nhân với đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
       <c r="H79" t="n">
         <v>30</v>
       </c>
@@ -3296,25 +2922,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A. “Hòn đảo tự do”.</t>
+          <t>A. “Hòn đảo tự do”.					B. “Lục địa mới trỗi dậy”.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B. “Lục địa mới trỗi dậy”.</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>C. “Lục địa bùng cháy”.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>D. “Tiền đồn của chủ nghĩa xã hội”.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>C. “Lục địa bùng cháy”.				D. “Tiền đồn của chủ nghĩa xã hội”.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
       <c r="H80" t="n">
         <v>30</v>
       </c>
@@ -3332,25 +2952,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A. Raúl Castro.</t>
+          <t>A. Raúl Castro.					B. Flugenco Batista.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>B. Flugenco Batista.</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>C. Fidel Castro.</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>D. Che Guevara.</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>C. Fidel Castro.	           				D. Che Guevara.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
       <c r="H81" t="n">
         <v>30</v>
       </c>
@@ -3368,25 +2982,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A. cuộc cách mạng Argentina.</t>
+          <t>A. cuộc cách mạng Argentina.			B. cuộc cách mạng Cu Ba.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>B. cuộc cách mạng Cu Ba.</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>C. cuộc cách mạng Venezuela.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>D. cuộc cách mạng Colombia.</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>C. cuộc cách mạng Venezuela.			D. cuộc cách mạng Colombia.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
       <c r="H82" t="n">
         <v>30</v>
       </c>
@@ -3404,25 +3012,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A. là thuộc địa kiểu mới của Mỹ.</t>
+          <t>A. là thuộc địa kiểu mới của Mỹ.			B. là thuộc địa của Tây Ban Nha.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>B. là thuộc địa của Tây Ban Nha.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>C. sớm giành được độc lập từ thế kỉ XIX.</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>D. giành độc lập bằng con đường ngoại giao.</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>C. sớm giành được độc lập từ thế kỉ XIX.		D. giành độc lập bằng con đường ngoại giao.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
       <c r="H83" t="n">
         <v>30</v>
       </c>
@@ -3440,25 +3042,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A. thực dân Tây Ban Nha và Bồ Đào Nha.</t>
+          <t>A. thực dân Tây Ban Nha và Bồ Đào Nha.		B. chính quyền độc tài thân Mỹ.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>B. chính quyền độc tài thân Mỹ.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>D. chủ nghĩa thực dân cũ.</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>C. chủ nghĩa phân biệt chủng tộc.			D. chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
       <c r="H84" t="n">
         <v>30</v>
       </c>
@@ -3604,6 +3200,3142 @@
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Câu 1. Trước Chiến tranh thế giới thứ hai hầu hết các nước Đông Bắc Á đều bị chủ nghĩa thực dân nô dịch trừ quốc gia nào?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A. Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>B. Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>C. Nhật Bản.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>D. Hàn Quốc.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Câu 2. Sau chiến tranh thế giới thứ hai, ở Trung Quốc tồn tại hai lực lượng đối lập là</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A. lực lượng Mỹ và lực lượng Quốc dân đảng.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>B. lực lượng Nhật Bản và lực lượng Quốc dân đảng.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>C. lực lượng Đảng Cộng sản và lực lượng quân cách mạng.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>D. lực lượng Đảng Cộng sản và lực lượng Quốc dân đảng.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Câu 3. Từ năm 1946 đến năm 1949 ở Trung Quốc đã diễn ra cuộc nội chiến giữa</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A. Liên Xô và Mỹ.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>B. Liên Xô và thế lực thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>C. Quốc dân Đảng và Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>D. Quốc dân Đảng và thế lực thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Câu 4. Đường lối chiến lược của quân giải phóng Trung Quốc trong giai đoạn 1946 – 1947 là</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A. phòng ngự tích cực, không giữ đất, tiêu diệt sinh lực địch, xây dựng lực lượng mình.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>B. phòng thủ chặt, phản công nhanh, tấn công chiếm đất.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>C. tiến công mở rộng đất đai, tiêu diệt sinh lực địch, xây dựng lực lượng mình.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>D. tiến công tiêu diệt sinh lực địch, giải phóng đất đai.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Câu 5. Giai đoạn 1946 – 1947, quân giải phóng Trung Quốc thực hiện đường lối phòng ngự tích cực do</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A. quân đội Quốc dân đảng quá mạnh.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>B. quân đội Đảng Cộng sản quá yếu.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>C. so sánh lực lượng chênh lệch có lợi cho Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>D. so sánh lực lượng chênh lệch bất lợi cho Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Câu 6. Chủ tịch đầu tiên của nước Cộng hòa Nhân dân Trung Hoa (10/1949) là</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A. Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>B. Tưởng Giới Thạch.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>C. Lưu Thiếu Kỳ.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>D. Tôn Trung Sơn.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Câu 7. Điều kiện cơ bản nhất quyết định sự thắng lợi của cách mạng dân tộc dân chủ của nhân dân Trung Quốc là</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A. lực lượng cách mạng Trung Quốc phát triển mạnh.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>B. được sự giúp đỡ của Liên Xô.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>C. tác động của phong trào cách mạng thế giới.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>D. nhân dân trong nước ủng hộ lực lượng cách mạng.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Câu 8. Nội dung nào sau đây không thuộc đường lối đổi mới của Trung Quốc từ 1978?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A. Tiến hành cải cách và mở cửa.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>B. Lấy phát triển kinh làm trung tâm.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>C. Thực hiện đường lối “ba ngọn cờ hồng”.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>D. Chuyển sang kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Câu 9. Cuộc nội chiến lần thứ tư ở Trung Quốc bùng nổ là do(1946-1949)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A. lực lượng Trung Quốc phát triển mạnh.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>B. tập đoàn Tưởng Giới Thạch muốn tiêu diệt Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>C. Mỹ muốn biến Trung Quốc thành thuộc địa kiểu mới.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>D. Đảng Cộng sản Trung Quốc muốn tiêu diệt chính phủ Tưởng Giới Thạch.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Câu 10. Chính sách đối ngoại của Trung Quốc từ những năm 80 của thế kỉ XX đến nay là</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A. bất lợi cho cách mạng Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>B. bắt tay với Mỹ chống lại Liên Xô.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>C. gây chiến tranh xâm lược biên giới phía Bắc Việt Nam.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>D. mở rộng quan hệ hữu nghị, hợp tác với các nước trên thế giới.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Câu 11. Hồng Công, Ma Cao trở về thuộc chủ quyền của Trung Quốc vào thời gian nào?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A. Hồng Công (1999), Ma Cao (1997).</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>B. Hồng Công (1999), Ma Cao (1999).</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>C. Hồng Công (1997), Ma Cao (1999).</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>D. Hồng Công (1997), Ma Cao (1997).</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Câu 12. Ba con rồng kinh tế của Đông Bắc Á bao gồm</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A. Hàn Quốc, Hồng Công, Ma Cao.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>B. Hồng Công, Ma Cao, Đài Loan.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>C. Hàn Quốc, Ma Cao, Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>D. Hàn Quốc, Hồng Công, Đài Loan.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Câu 13. Người khởi xướng công cuộc cải cách ở Trung Quốc (từ tháng 12/1978) là</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A. Đặng Tiểu Bình.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>B. Chu Ân Lai.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>C. Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>D. Lưu Thiếu Kỳ.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Câu 14. Sự kiện nào sau đây không thuộc những biến đổi cơ bản của các nước Đông Bắc Á sau năm1945?</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A. Từ các nước thuộc địa trở thành các nước độc lập.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>B. Sự ra đời của hai nhà nước trên bán đảo Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>C. Sự thành lập nước Cộng hòa Nhân Dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>D. Đạt nhiều thành tựu trong công cuộc xây dựng đất nước.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Câu 15. Đường lối chung của công cuộc cải cách kinh tế - xã hội ở Trung Quốc là</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A. lấy phát triển kinh tế làm trung tâm, chuyển sang nền kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>B. lấy chính trị làm trung tâm, chuyển sang nền kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>C. tiến hành cải cách - mở cửa, chuyển sang nền kinh tế thị trường.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>D. chuyển sang nền kinh tế thị trường, xây dựng CNXH đặc sắc Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Câu 16. Trung Quốc thiết lập quan hệ ngoại giao với Việt Nam vào</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A. năm 1945.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>B. năm 1950.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>C. năm 1954.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>D. năm 1975.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Câu 17. Sau cuộc nội chiến ở Trung Quốc, lực lượng Quốc dân đảng bị thất bại, phải rút chạy ra</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A. Đài Loan.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>B. Hồng Công.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>C. Ma Cao.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>D. Nam Kinh.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Câu 18. Năm 1949 cách mạng Trung Quốc thành công, thành lập ra nước</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A. Dân chủ Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>B. Cộng hòa Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>C. Cộng hòa Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>D. Cộng hòa Dân chủ Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Câu 19. Thành tựu nổi bật trong lĩnh vực khoa học – kĩ thuật năm 1964 của Trung Quốc là</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A. phóng thành công vệ tinh nhân tạo.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>B. thử thành công bom nguyên tử.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>C. phóng tàu vũ trụ Thần Châu V.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>D. phóng tàu thăm dò Mặt Trăng.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Câu 20. Trung Quốc là quốc gia thứ mấy trên thế giới phóng thành công tàu vũ trụ có người lái?</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A. Thứ hai.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>B. Thứ ba.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>C. Thứ tư.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>D. Thứ năm.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Câu 21. Nguyên tắc nào dưới đây không được xác định trong đường lối cải cách mở cửa của Trung Quốc?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A. Thực hiện đa nguyên, đa đảng về chính trị.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>B. Kiên trì sự lãnh đạo của Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>C. Kiên trì chủ nghĩa Marx - Lenin, tư tưởng Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>D. Kiên trì chủ nghĩa xã hội và chuyên chính dân chủ nhân dân.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Câu 22. Cuộc nội chiến 1950  đến 1953 trên bán đảo Triều Tiên là sản phẩm của</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A. sự đụng đầu trực tiếp đầu tiên giữa Liên Xô và Mỹ.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>B. mâu thuẫn về chính trị giữa Liên Xô và Mỹ.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>C. mâu thuẫn về kinh tế giữa Liên Xô và Mỹ.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>D. sự đụng đầu trực tiếp đầu tiên giữa TBCN và XHCN</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Câu 23. Tính chất cuộc nội chiến cách mạng ở Trung Quốc (1946 - 1949) là</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A. cách mạng tư sản.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>B. chiến tranh giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>C. cách mạng xã hội chủ nghĩa.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>D. cách mạng dân tộc dân chủ.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Câu 24. Nguyên tắc nào dưới đây không được xác định trong đường lối cải cách mở cửa của Trung Quốc?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A. Thực hiện đa nguyên, đa đảng về chính trị.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>B. Kiên trì sự lãnh đạo của Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>C. Kiên trì chủ nghĩa Marx - Lenin, tư tưởng Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>D. Kiên trì chủ nghĩa xã hội và chuyên chính dân chủ nhân dân.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Câu 25. Công cuộc cải cách - mở cửa của Trung Quốc và đường lối đổi mới ở Việt Nam có điểm gì giống nhau?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A. đều kiên trì bốn nguyên tắc cơ bản.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>B. đều kiên trì sự lãnh đạo của Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>C. xây dựng chủ nghĩa xã hội mang đặc sắc riêng từng nước.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>D. đều là nền kinh tế lạc hậu, bị chiến tranh tàn phá nặng nề.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Câu 26. Công cuộc cải cách - mở cửa của Trung Quốc (1978 - 2000) được đánh giá là</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A. góp phần củng cố hệ thống xã hội chủ nghĩa trên thế giới.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>B. thành công biến Trung Quốc thành quốc gia giàu mạnh nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>C. đưa Trung Quốc thoát khỏi cuộc khủng hoảng năng lượng năm 1973.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>D. đúng đắn, phù hợp với hoàn cảnh Trung Quốc trong những năm 80.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Câu 27. Trước chiến tranh thế giới thứ II, quốc gia duy nhất ở Đông Nam Á không bị xâm lược là</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A. Lào.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>B. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>C. Mianma.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>D. Singapore.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Câu 28. Nguyên nhân khách quan nào đã tạo điều kiện cho các quốc gia Đông Nam Á giành được độc lập năm 1945?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A. phát xít Đức đầu hàng Đồng minh không điều kiện.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>B. phát xít Nhật đầu hàng Đồng minh không điều kiện.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>C. thực dân Hà Lan suy yếu mất quyền thống trị ở Inđônêxia.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>D. thực dân Pháp bị Nhật đảo chính mất quyền thống trị ở Đông Dương.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Câu 29. Những quốc gia Đông Nam Á tuyên bố độc lập trong năm 1945 là</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A. Indonesia, Việt Nam, Lào.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>B. Indonesia, Việt Nam, Campuchia.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>C. Việt Nam, Lào, Thái Lan.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>D. Việt Nam, Lào, Campuchia.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Câu 30. Biến đổi lớn nhất của các quốc gia Đông Nam Á sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A. đều gia nhập tổ chức ASEAN.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>B. có vị thế ngày càng cao trên trường quốc tế.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>C. giành nhiều thành tựu trong công cuộc xây dựng đất nước.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>D. từ những nước thuộc địa trở thành các quốc gia độc lập.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Câu 31. Nhiệm vụ chung của cách mạng Lào và Việt Nam giai đoạn 1954 – 1975 là</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A. kháng chiến chống Pháp.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>B. kháng chiến chống Mỹ.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>C. đấu tranh giành độc lập.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>D. xây dựng chủ nghĩa xã hội.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Câu 32. Quốc gia nào có tốc độ tăng trưởng kinh tế cao nhất ở Đông Nam Á trong những năm 70 của thế kỉ XX?</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A. Singapore.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>B. Malaixia.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>C. Philippines.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Câu 33. Quốc gia nào ở Đông Nam Á trở thành “con rồng” nổi trội nhất trong bốn “con rồng” kinh tế của châu Á?</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A. Indonesia.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>B. Singapore.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>C. Philippines.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Câu 34. Quốc gia nào tuyên bố độc lập muộn nhất ở Đông Nam Á?</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A. Indonesia.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>B. Brunei.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>C. Mianma.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>D. Đông Timo.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Câu 35. Tổ chức lãnh đạo nhân dân Lào tiến hành cuộc kháng chiến chống Mĩ từ năm 1955 là</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A. Đảng Nhân dân Lào.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>B. Đảng Cộng sản Đông Dương.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>C. Liên minh Việt – Miên – Lào.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>D. Đảng Nhân dân Cách mạng Lào.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Câu 36. Đường lối mà Chính phủ Sihanouk đã thực hiện ở Campuchia từ năm 1954 đến năm 1970 là</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A. trung lập tích cực.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>B. hòa bình trung lập.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>C. kháng chiến chống Mỹ.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>D. kháng chiến chống Pháp.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Câu 37. Đảng Quốc Đại là chính đảng của giai cấp nào ở Ấn Độ?</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A. Tư sản.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>B. Vô sản.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>C. Nông dân.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>D. Tiểu tư sản.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Câu 38. Theo phương án “Mounbatten”, Ấn Độ được thực dân Anh hứa sẽ trao trả quyền</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A. độc lập.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>B. tự do.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>C. tự trị.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>D. tự quyết.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Câu 39. Cuộc vận động ngoại giao của Sihanouk thường được gọi là</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A. cuộc thập tự chinh vì hòa bình của Quốc vương.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>B. cuộc đấu tranh vì nền độc lập dân tộc.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>C. cuộc thập tự chinh vì độc lập của Quốc vương.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>D. cuộc trường chinh vì nền độc lập dân tộc Campuchia.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Câu 40. Biến đổi quan trọng nhất của các nước Đông Nam Á sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A. các nước Đông Nam Á đã giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>B. các nước Đông Nam Á đều là thành viên của tổ chức ASEAN.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>C. các nước ra sức xây dựng kinh tế - xã hội, đạt nhiều thành tựu.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>D. một số nước trở thành nước công nghiệp mới (NIC).</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Câu 41. Quốc gia tuyên bố độc lập muộn nhất ở Đông Nam Á là</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A. Miến Điện.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>B. Singapore.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>C. Brunei.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>D. Timor Leste.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Câu 42. Năm 1965, Singapore được tách ra khỏi nước nào để thành lập nước cộng hòa độc lập?</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A. Liên bang Malaysia.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>B. Liên bang Miến Điện.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>C. Indonesia.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>D. Anh.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Câu 43. Năm 1951, Campuchia đã thành lập đảng gì để lãnh đạo cách mạng thay cho Đảng Cộng sản Đông Dương?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A. Đảng Lao động Campuchia.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>B. Đảng Nhân dân Campuchia.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>C. Đảng Dân chủ quốc gia Campuchia.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>D. Đảng Nhân dân Cách mạng Campuchia.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Câu 44. Yếu tố quyết định sự phát triển của phong trào giải phóng dân tộc ở các nước châu Á sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A. sự suy yếu của các nước đế quốc chủ nghĩa phương Tây.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>B. thắng lợi của phe Đồng minh trong chiến tranh chống phát xít.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>C. hệ thống xã hội chủ nghĩa hình thành và ngày càng phát triển.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>D. ý thức độc lập và sự lớn mạnh của các lực lượng dân tộc.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Câu 45. Sau chiến tranh thế giới thứ hai những quốc gia nào bị chia cắt ở khu vực châu Á?</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A. Việt Nam, Triều Tiên, Ấn Độ.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>B. Hàn Quốc, Việt Nam, Ấn Độ.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>C. Lào, Việt Nam, Nhật Bản.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>D. Triều Tiên, Nhật Bản, Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Câu 46. Hình thức đấu tranh chủ yếu trong phong trào giải phóng dân tộc ở các nước châu Á sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A. đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>B. kết hợp đấu tranh chính trị và đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>C. đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>D. đấu tranh công khai, bí mật, hợp pháp, bất hợp pháp.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Câu 47. Giai cấp giữ vai trò lãnh đạo phong trào giải phóng dân tộc ở các nước châu Á sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A. giai cấp công nhân và nông dân.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>B. giai cấp tư sản và vô sản.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>C. giai cấp tư sản và tiểu tư sản.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>D. giai cấp tiểu tư sản và công nhân.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Câu 48. Sự kiện góp phần mở rộng không gian địa lý của hệ thống xã hội chủ nghĩa thế giới là</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A. nước Việt Nam dân chủ cộng hòa thành lập (2/9/1945).</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>B. nước Cộng hòa Nhân dân Trung Hoa thành lập (1/10/1949).</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ tuyên bố độc lập và lập nước cộng hòa (26/1/1950).</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>D. nước Cộng hòa Cuba thành lập (1/1/1959).</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Câu 49. Năm 1947, dựa trên cơ sở nào thực dân Anh đã chia Ấn Độ thành hai quốc gia (Ấn Độ và Pakixtan)?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A. Văn hóa.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>B. Kinh tế.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>C. Tôn giáo.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>D. Lãnh thổ.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Câu 50. Cuộc cách mạng nào đã đưa Ấn Độ trở thành nước xuất khẩu gạo đứng hàng thứ ba trên thế giới từ năm 1995?</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A. “Cách mạng công nghệ”.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>B. “Cách mạng chất xám”.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>C. “Cách mạng xanh”.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>D. “Cách mạng trắng”.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Câu 51. Cuộc “cách mạng chất xám” đã đưa Ấn Độ trở thành một trong những cường quốc sản xuất</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A. máy bay lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>B. tàu thủy lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>C. hóa chất lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>D. phần mềm lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Câu 52. Sự kiện nổi bật nào diễn ra ở Ấn Độ ngày 26/1/1950?</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A. Ấn Độ giành quyền tự trị.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>B. Ấn Độ thử thành công bom nguyên tử.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ phóng thành công vệ tinh nhân tạo.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>D. Ấn Độ tuyên bố độc lập.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Câu 53. “Phương án Mounbatten” chia Ấn Độ thành 2 quốc gia là</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>A. Ấn Độ của người theo Ấn Độ giáo, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>B. Ấn Độ của người theo Ấn Độ giáo, Pakistan của người theo Phật giáo.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ của người theo đạo Tin Lành, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>D. Ấn Độ của người theo Thiên chúa giáo, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Câu 54. Chính sách đối ngoại mà Ấn Độ theo đuổi sau khi giành độc lập là</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A. hòa bình, trung lập tích cực.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>B. trung lập, tiếp nhận sự viện trợ từ mọi phía.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>C. hòa bình, hữu nghị hợp tác.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>D. trung lập, không tham gia liên minh quân sự nào.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Câu 55. Những điểm giống nhau cơ bản giữa cách mạng Lào và cách mạng Việt Nam từ năm 1945 đến năm 1975 là</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A. giành độc lập và đi lên xây dựng chủ nghĩa xã hội.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>B. chung kẻ thù, chung những mốc thắng lợi quan trọng.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>C. buộc Pháp phải công nhận các quyền dân tộc cơ bản.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>D. chung kẻ thù và đặt dưới sự lãnh đạo của Đảng Cộng sản Đông Dương.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Câu 56. Điểm khác biệt cơ bản giữa cách mạng Campuchia với cách mạng Lào và cách mạng Việt Nam năm 1945 là</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A. tiến hành chống chế độ diệt chủng Khơme đỏ.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>B. thi hành đường lối đối ngoại hòa bình, trung lập.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>C. không giành được chính quyền từ phát xít Nhật.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>D. giành được chính quyền từ thực dân Pháp và phát xít Nhật.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Câu 57. Nội dung nào sau đây thể hiện điểm chung của Ấn Độ và các nước Đông Nam Á trong nửa sau thế kỉ XX?</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A. Các nước thực dân tiến hành khai thác thuộc địa.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>B. Bị các nước đế quốc trở lại tái chiếm.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>C. Tập trung phát triển kinh tế</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>D. Giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Câu 58. Những nguyên nhân cơ bản nào giúp ba nước Indonesia, Việt Nam và Lào giành độc lập sớm nhất ở khu vực Đông Nam Á sau Chiến tranh thế giới thứ hai?</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A. Điều kiện khách quan thuận lợi và biết chớp thời cơ.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>B. Điều kiện khách quan thuận lợi và nhân dân nhiệt tình cách mạng.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>C. Kẻ thù đã suy yếu và được sự ủng hộ của nhân loại tiến bộ.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>D. Có sự chuẩn bị lâu dài kết hợp với chớp thời cơ.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Câu 59. Điểm khác biệt trong cuộc đấu tranh giành độc lập của Ấn Độ với các nước Đông Nam Á là gì?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A. Khuynh hướng đấu tranh.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>B. Tổ chức lãnh đạo.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>C. Giai cấp lãnh đạo.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>D. Hình thức đấu tranh.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Câu 60. Quốc gia giành độc lập sớm nhất ở châu Phi sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A. Mozambique.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>B. Zimbabwe.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>C. Angola.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>D. Ai Cập.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Câu 61. Năm 1960 đã đi vào lịch sử với tên gọi là “Năm châu Phi” vì</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A. tất cả các nước châu Phi giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>B. phong trào giải phóng dân tộc phát triển mạnh nhất.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>C. có 17 nước ở châu Phi được trao trả độc lập.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân sụp đổ ở châu Phi.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Câu 62. Sự kiện đánh dấu mốc sụp đổ về cơ bản ách thống trị của chủ nghĩa thực dân cũ và hệ thống thuộc địa của nó ở châu Phi là</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A. nước Cộng hòa Ai Cập thành lập (1953).</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>B. 17 nước châu Phi được trao trả độc lập (1960).</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>C. nước Cộng hòa nhân dân Angola thành lập (1975).</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>D. nước Cộng hòa Zimbabwe thành lập (1980).</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Câu 63. Thắng lợi có tác động mạnh đến phong trào giải phóng dân tộc ở châu Phi là</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A. cách mạng Ai Cập thành công (1953)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>B. chiến thắng Điện Biên Phủ của Việt Nam (1954).</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>C. cách mạng Cuba thành công (1959).</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>D. thắng lợi của cách mạng Việt Nam (1975).</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Câu 64. Từ cuối những năm 80 của thế kỉ XX, chủ nghĩa thực dân chỉ tồn tại chủ yếu dưới hình thức</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A. chủ nghĩa thực dân kiểu cũ.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>B. chủ nghĩa đế quốc.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân kiểu mới</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Câu 65. Lịch sử gọi châu Phi là “Lục địa mới trỗi dậy” vì</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A. châu Phi là lá cờ đầu trong cuộc đấu tranh chống chủ nghĩa đế quốc, thực dân.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>B. sau Chiến tranh thế giới thứ hai, phong trào giải phóng dân tộc phát triển mạnh và hầu hết các nước ở châu Phi đã giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>C. sau Chiến tranh thế giới thứ hai, cơn bão táp cách mạng giải phóng dân tộc bùng nổ ở châu Phi chống chủ nghĩa đế quốc và chủ nghĩa thực dân.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>D. phong trào giải phóng dân tộc ở châu Phi đã làm rung chuyển hệ thống thuộc địa của chủ nghĩa thực dân ở châu lục này.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Câu 66. Hình thức đấu tranh giành độc lập chủ yếu thông qua đấu tranh chính trị hợp pháp là đặc điểm của phong trào giải phóng dân tộc ở</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A. Châu Á.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>B. Châu Phi.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>C. Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>D. Châu Âu.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Câu 67. Khu vực Bắc Phi là nơi đầu tiên bùng lên phong trào giải phóng dân tộc ở châu Phi vì</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A. đây là khu vực có điều kiện kinh tế xã hội tương đối phát triển, ý thức dân tộc cao.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>B. chế độ độc tài thân phương Tây ở khu vực bị nhân dân oán ghét, vì bán rẻ quyền lợi dân tộc.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>C. khu vực nhiều dầu mỏ nên được Liên Xô giúp đỡ để thiết lập ảnh hưởng.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>D. kênh đào Suez đem lại nguồn thu lớn nhân dân muốn trực tiếp quản lí.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Câu 68.  Phong trào đấu tranh chống chủ nghĩa thực dân ở châu Phi nổ ra đầu tiên ở khu vực</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A. Bắc Phi.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>B. Nam Phi.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>C. Tây Phi.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>D. Đông Phi.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Câu 69. Tổ chức đóng vai trò quan trọng đối với lịch sử châu Phi ra đời năm 1963 là</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A. Mặt trận dân tộc giải phóng châu Phi.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>B. Tổ chức thống nhất châu Phi.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>C. Hiệp hội các nước châu Phi.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>D. Đại hội dân tộc châu Phi.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Câu 70. Hình thức đấu tranh chủ yếu của các nước Mỹ Latinh sau thắng lợi của cách mạng Cuba năm 1959 là</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A. đấu tranh nghị trường.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>B. đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>C. đấu tranh kinh tế.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>D. đấu tranh ngoại giao.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Câu 71. Phong trào đấu tranh chống chủ nghĩa thực dân ở Châu Phi phát triển từ</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A. những năm 30  của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>B. những năm 40 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>C. những năm 50 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>D. những năm 60 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Câu 72. Phong trào giải phóng dân tộc ở Nam Phi có đặc điểm  nổi bật là</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A. chống chế độ phân biệt đẳng cấp.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>B. chống chủ nghĩa thực dân kiểu cũ, giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>C. chống chủ nghĩa thực dân kiểu mới, giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>D. chống chế độ phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Câu 73. Nước cuối cùng giành độc lập ở châu Phi là</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A. Ghine.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>B. Angola.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>C. Namibia.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>D. Maroc.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Câu 74. Tổng thống da đen đầu tiên của Cộng hòa Nam Phi là</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A. Thabo Mbeki.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>B. Nelson Mandela.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>C. Jacob Zuma.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>D. Frederik de Klerk.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Câu 75. Sự kiện Mandela, trở thành tổng thống người da đen đầu tiên của cộng hòa Nam Phi đã đánh dấu mốc</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A. mở đầu cuộc đấu tranh chống chế độ phân biệt chủng tộc Apartheid.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>B. chấm dứt chế độ phân biệt chủng tộc Apartheid ở Nam Phi.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>C. Nam Phi hoàn thành cuộc đấu tranh chống chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>D. Namibia thoát khỏi sự thống trị của Nam Phi.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Câu 76. Đầu thế kỉ XIX, hầu hết các nước Mỹ Latinh đều độc lập nhưng lại rơi vào vòng lệ thuộc của</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A. thực dân Anh.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>B. thực dân Pháp.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>C. đế quốc Mỹ.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>D. thực dân Hà Lan.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Câu 77. Kẻ thù chủ yếu của nhân dân các nước Mỹ Latinh sau Chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A. chế độ phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>B. chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa đế quốc.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>D. chế độ độc tài thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Câu 78. Thập niên 60 - 70 của thế kỉ XX, phong trào đấu tranh của nhân dân các nước Mỹ Latinh diễn ra chủ yếu dưới hình thức</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A. đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>B. kết hợp đấu tranh chính trị với đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>C. đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>D. kết hợp bãi công của công nhân với đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Câu 79. Trong cuộc đấu tranh chống chủ nghĩa thực dân kiểu mới, Mỹ Latinh đã được mệnh danh là</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A. “Hòn đảo tự do”.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>B. “Lục địa mới trỗi dậy”.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>C. “Lục địa bùng cháy”.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>D. “Tiền đồn của chủ nghĩa xã hội”.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Câu 80. Sau khi chế độ độc tài Batista sụp đổ, nước Cộng hòa Cuba ra đời do ai đứng đầu?</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A. Raúl Castro.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>B. Flugenco Batista.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>C. Fidel Castro.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>D. Che Guevara.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Câu 81. Thắng lợi tiêu biểu nhất ở khu vực Mỹ Latinh trong cuộc đấu tranh chống chế độ độc tài thân Mỹ sau chiến tranh thế giới thứ hai là</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A. cuộc cách mạng Argentina.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>B. cuộc cách mạng Cu Ba.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>C. cuộc cách mạng Venezuela.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>D. cuộc cách mạng Colombia.</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Câu 82. Khác với các nước Châu Á và châu Phi, các nước Mỹ Latinh</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A. là thuộc địa kiểu mới của Mỹ.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>B. là thuộc địa của Tây Ban Nha.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>C. sớm giành được độc lập từ thế kỉ XIX.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>D. giành độc lập bằng con đường ngoại giao.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Câu 83. Sau chiến tranh thế giới thứ hai, các nước Mỹ Latinh đấu tranh chống</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A. thực dân Tây Ban Nha và Bồ Đào Nha.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>B. chính quyền độc tài thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Câu 84. Thắng lợi của cách mạng Cuba có ý nghĩa</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>A. mở đầu phong trào đấu tranh bảo vệ độc lập cùa các nước Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>B. đánh dấu bước phát triển mới của phong trào đấu tranh bảo vệ độc lập của các nước Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>C. đánh dấu sự thắng lợi hoàn toàn của phong trào đấu tranh chống thực dân mới ở Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>D. đánh dấu chế độ độc tài hoàn toàn sụp đổ ở Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Câu 85. Sau chiến tranh thế giới thứ hai Mỹ Latinh được gọi là lục địa “bùng cháy” vì</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A. Mỹ Latinh khôi phục được chủ quyền.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>B. nền kinh tế có những chuyền biến mạnh mẽ.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>C. phong trào đấu tranh vũ trang bùng nổ mạnh mẽ chống chế độ độc tài thân Mỹ.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>D. phong trào đấu tranh nghị trường diễn ra mạnh mẽ.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Câu 86. Tháng 8/1961, Mỹ đề xướng việc tổ chức Liên minh vì tiến bộ để</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A. ngăn chặn làn sóng đấu tranh của nhân dân các nước Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>B. ngăn chặn sự phát triển kinh tế của các nước Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>C. ngăn chặn ảnh hưởng của cách mạng Cuba.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>D. ngăn chặn ảnh hưởng của chủ nghĩa xã hội đối với khu vực Mỹ Latinh.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Câu 87. Cao trào đấu tranh vũ trang bùng nổ mạnh mẽ ở Mỹ Latinh trong thời gian</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A. từ năm 1945 đến cuối những năm 80 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>B. từ năm 1959 đến cuối những năm 80 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>C. từ năm 1959 đến năm 2000.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>D. cuối những năm 80 của thế kỉ XX đến năm 2000.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
         <v>30</v>
       </c>
     </row>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,6 +3619,3142 @@
         <v>30</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Câu 1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A. Trung Quốc</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>B. Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>C. Nhật Bản.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>D. Hàn Quốc.</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Câu 2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A. lực lượng M</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>B. lực lượng Nhật Bản và lực lượng Quốc dân đảng.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>C. lực lượng Đảng Cộng sản và lực lượng quân cách mạng.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>D. lực lượng Đảng Cộng sản và lực lượng Quốc dân đảng.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Câu 3.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A. Liên Xô và M</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>B. Liên Xô và thế lực thân M</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>C. Quốc dân Đảng và Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>D. Quốc dân Đảng và thế lực thân M</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Câu 4</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A. phòng ngự tích cực, không giữ đất, tiêu diệt sinh lực địch, xây dựng lực lượng mình.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>B. phòng thủ chặt, phản công nhanh, tấn công chiếm đất.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>C. tiến công mở rộng đất đai, tiêu diệt sinh lực địch, xây dựng lực lượng mình.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>D. tiến công tiêu diệt sinh lực địch, giải phóng đất đai.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Câu 5</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A. quân đội Quốc dân đảng quá mạnh.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>B. quân đội Đảng Cộng sản quá yếu.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>C. so sánh lực lượng chênh lệch có lợi cho Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>D. so sánh lực lượng chênh lệch bất lợi cho Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Câu 6</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A. Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>B. Tưởng Giới Thạch.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>C. Lưu Thiếu Kỳ.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>D. Tôn Trung Sơn.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Câu 7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A. lực lượng cách mạng Trung Quốc phát triển mạnh.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>B. được sự giúp đỡ của Liên Xô.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>C. tác động của phong trào cách mạng thế giới.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>D. nhân dân trong nước ủng hộ lực lượng cách mạng.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Câu 8</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A. Tiến hành cải cách và mở cửa.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>B. Lấy phát triển kinh làm trung tâm.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>C. Thực hiện đường lối “ba ngọn cờ hồng”.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>D. Chuyển sang kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Câu 9</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A. lực lượng Trung Quốc phát triển mạnh.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>B. tập đoàn Tưởng Giới Thạch muốn tiêu diệt Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>C. Mỹ muốn biến Trung Quốc thành thuộc địa kiểu mới.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>D. Đảng Cộng sản Trung Quốc muốn tiêu diệt chính phủ Tưởng Giới Thạch.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Câu 10</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A. bất lợi cho cách mạng Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>B. bắt tay với M</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>C. gây chiến tranh xâm lược biên giới phía Bắc Việt Nam.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>D. mở rộng quan hệ hữu nghị, hợp tác với các nước trên thế giới.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Câu 11.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A. Hồng Công (1999), Ma Cao (1997).</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>B. Hồng Công (1999), Ma Cao (1999).</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>C. Hồng Công (1997), Ma Cao (1999).</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>D. Hồng Công (1997), Ma Cao (1997).</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Câu 12</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A. Hàn Quốc, Hồng Công, Ma Cao.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>B. Hồng Công, Ma Cao, Đài Loan.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>C. Hàn Quốc, Ma Cao, Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>D. Hàn Quốc, Hồng Công, Đài Loan.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Câu 13</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Câu 14</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A. Từ các nước thuộc địa trở thành các nước độc lập.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>B. Sự ra đời của hai nhà nước trên bán đảo Triều Tiên.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>C. Sự thành lập nước Cộng hòa Nhân Dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>D. Đạt nhiều thành tựu trong công cuộc xây dựng đất nước.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Câu 15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A. lấy phát triển kinh tế làm trung tâm, chuyển sang nền kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>B. lấy chính trị làm trung tâm, chuyển sang nền kinh tế thị trường XHCN.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>C. tiến hành cải cách - mở cửa, chuyển sang nền kinh tế thị trường.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>D. chuyển sang nền kinh tế thị trường, xây dựng CNXH đặc sắc Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Câu 16</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A. năm 1945.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>B. năm 1950.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>C. năm 1954.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>D. năm 1975.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Câu 17</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A. Đài Loan.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>B. Hồng Công.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>C. Ma Cao.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>D. Nam Kinh.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Câu 18</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A. Dân chủ Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>B. Cộng hòa Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>C. Cộng hòa Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>D. Cộng hòa Dân chủ Nhân dân Trung Hoa.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Câu 19</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A. phóng thành công vệ tinh nhân tạo.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>B. thử thành công bom nguyên tử.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>C. phóng tàu vũ trụ Thần Châu V.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>D. phóng tàu thăm dò Mặt Trăng.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Câu 20</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A. Thứ hai.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>B. Thứ ba.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>C. Thứ tư.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>D. Thứ năm.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Câu 21. Nguyên tắc nào dưới đây không được xác định trong đường lối cải cách mở cửa của Trung Quốc?</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A. Thực hiện đa nguyên, đa đảng về chính trị.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>B. Kiên trì sự lãnh đạo của Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>C. Kiên trì chủ nghĩa Marx - Lenin, tư tưởng Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>D. Kiên trì chủ nghĩa xã hội và chuyên chính dân chủ nhân dân.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Câu 22. Cuộc nội chiến 1950  đến 1953 trên bán đảo Triều Tiên là sản phẩm của</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A. sự đụng đầu trực tiếp đầu tiên giữa Liên Xô và M</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>B. mâu thuẫn về chính trị giữa Liên Xô và M</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>C. mâu thuẫn về kinh tế giữa Liên Xô và M</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>D. sự đụng đầu trực tiếp đầu tiên giữa TBCN và XHCN</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Câu 23. Tính chất cuộc nội</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A. cách mạng tư sản.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>B. chiến tranh giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>C. cách mạng xã hội chủ nghĩa.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>D. cách mạng dân tộc dân chủ.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Câu 24. Nguyên tắc nào dưới đây không được xác định trong đường lối cải cách mở cửa của Trung Quốc?</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A. Thực hiện đa nguyên, đa đảng về chính trị.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>B. Kiên trì sự lãnh đạo của Đảng Cộng sản Trung Quốc.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>C. Kiên trì chủ nghĩa Marx - Lenin, tư tưởng Mao Trạch Đông.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>D. Kiên trì chủ nghĩa xã hội và chuyên chính dân chủ nhân dân.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Câu 25. Công cuộc cải cách - mở cửa của Trung Quốc và đường lối đổi mới ở Việt Nam có điểm gì giống nhau?</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A. đều kiên trì bốn nguyên tắc cơ bản.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>B. đều kiên trì sự lãnh đạo của Đảng Cộng sản.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>C. xây dựng chủ nghĩa xã hội mang đặc sắc riêng từng nước.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>D. đều là nền kinh tế lạc hậu, bị chiến tranh tàn phá nặng nề.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Câu 26</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A. góp phần củng cố hệ thống xã hội chủ nghĩa trên thế giới.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>B. thành công biến Trung Quốc thành quốc gia giàu mạnh nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>C. đưa Trung Quốc thoát khỏi cuộc khủng hoảng năng lượng năm 1973.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>D. đúng đắn, phù hợp với hoàn cảnh Trung Quốc trong những năm 80.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Câu 27</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>C. Mianma.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>D. Singapore.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Câu 28</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A. phát xít Đức đầu hàng Đồng minh không điều kiện.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>B. phát xít Nhật đầu hàng Đồng minh không điều kiện.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>C. thực dân Hà Lan suy yếu mất quyền thống trị ở Inđônêxia.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>D. thực dân Pháp bị Nhật đảo chính mất quyền thống trị ở Đông Dương.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Câu 29</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A. Indonesia, Việt Nam, Lào.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>B. Indonesia, Việt Nam, Campuchia.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>C. Việt Nam, Lào, Thái Lan.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>D. Việt Nam, Lào, Campuchia.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Câu 30</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A. đều gia nhập tổ chức ASEAN.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>B. có vị thế ngày càng cao trên trường quốc tế.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>C. giành nhiều thành tựu trong công cuộc xây dựng đất nước.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>D. từ những nước thuộc địa trở thành các quốc gia độc lập.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Câu 31</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A. kháng chiến chống Pháp.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>B. kháng chiến chống M</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>C. đấu tranh giành độc lập.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>D. xây dựng chủ nghĩa xã hội.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Câu 32</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>A. Singapore.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>B. Malaixia.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>C. Philippines.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Câu 33</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A. Indonesia.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>B. Singapore.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>C. Philippines.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>D. Thái Lan.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Câu 34</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>C. Mianma.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>D. Đông Timo.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Câu 35</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A. Đảng Nhân dân Lào.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>B. Đảng Cộng sản Đông Dương.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>C. Liên minh Việt – Miên – Lào.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>D. Đảng Nhân dân Cách mạng Lào.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Câu 36</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A. trung lập tích cực.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>B. hòa bình trung lập.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>C. kháng chiến chống M</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>D. kháng chiến chống Pháp.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Câu 37.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A. Tư sản.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>B. Vô sản.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>C. Nông dân.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>D. Tiểu tư sản.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Câu 38</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A. độc lập.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>B. tự do.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>C. tự trị.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>D. tự quyết.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Câu 39</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A. cuộc thập tự chinh vì hòa bình của Quốc vương.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>B. cuộc đấu tranh vì nền độc lập dân tộc.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>C. cuộc thập tự chinh vì độc lập của Quốc vương.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>D. cuộc trường chinh vì nền độc lập dân tộc Campuchia.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Câu 40</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A. các nước Đông Nam Á đã giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>B. các nước Đông Nam Á đều là thành viên của tổ chức ASEAN.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>C. các nước ra sức</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>D. một số nước trở thành nước công nghiệp mới (NIC).</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Câu 41.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A. Miến Điện.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>B. Singapore.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>C. Brunei.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>D. Timor Leste.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Câu 42. Năm 1965, Singapore được tách ra khỏi nước nào để thành lập nước cộng hòa độc lập?</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A. Liên bang Malaysia.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>B. Liên bang Miến Điện.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>C. Indonesia.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>D. Anh.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Câu 43. Năm 1951, Campuchia đã thành lập đảng gì để lãnh đạo cách mạng thay cho Đảng Cộng sản Đông Dương?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A. Đảng Lao động Campuchia.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>B. Đảng Nhân dân Campuchia.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>C. Đảng Dân chủ quốc gia Campuchia.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>D. Đảng Nhân dân Cách mạng Campuchia.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Câu 44.</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>B.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>C.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>D.</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Câu 45</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A. Việt Nam, Triều Tiên, Ấn Độ.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>B. Hàn Quốc, Việt Nam, Ấn Độ.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>C. Lào, Việt Nam, Nhật Bản.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>D. Triều Tiên, Nhật Bản, Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Câu 46.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>B. kết hợp</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>C.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>D. đấu tranh công khai, bí mật, hợp pháp, bất hợp pháp.</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Câu 47.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A. giai cấp công nhân và nông dân.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>B. giai cấp tư sản và vô sản.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>C. giai cấp tư sản và tiểu tư sản.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>D. giai cấp tiểu tư sản và công nhân.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Câu 48</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A. nước Việt Nam dân chủ cộng hòa thành lập (2/9/1945).</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>B. nước Cộng hòa Nhân dân Trung Hoa thành lập (1/10/1949).</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ tuyên bố độc lập và lập nước cộng hòa (26/1/1950).</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>D. nước Cộng hòa Cuba thành lập (1/1/1959).</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Câu 49. Năm 1947, dựa trên cơ sở nào thực dân Anh đã chia Ấn Độ thành hai quốc gia (Ấn Độ và Pakixtan)?</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>A. Văn hóa.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>B. Kinh tế.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>C. Tôn giáo.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>D. Lãnh thổ.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Câu 50.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A. “Cách mạng công nghệ”.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>B. “Cách mạng chất xám”.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>C. “Cách mạng xanh”.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>D. “Cách mạng trắng”.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Câu 51.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A. máy bay lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>B. tàu thủy lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>C. hóa chất lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>D. phần mềm lớn nhất thế giới.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Câu 52</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A. Ấn Độ giành quyền tự trị.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>B. Ấn Độ thử thành công bom nguyên tử.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ phóng thành công vệ tinh nhân tạo.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>D. Ấn Độ tuyên bố độc lập.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Câu 53</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>A. Ấn Độ của người theo Ấn Độ giáo, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>B. Ấn Độ của người theo Ấn Độ giáo, Pakistan của người theo Phật giáo.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>C. Ấn Độ của người theo đạo Tin Lành, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>D. Ấn Độ của người theo Thiên chúa giáo, Pakistan của người theo Hồi giáo.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Câu 54.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>A. hòa bình, trung lập tích cực.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>B. trung lập, tiếp nhận sự viện trợ từ mọi phía.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>C. hòa bình, hữu nghị hợp tác.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>D. trung lập, không tham gia liên minh quân sự nào.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Câu 55.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>A. giành độc lập và đi lên xây dựng chủ nghĩa xã hội.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>B. chung kẻ thù, chung những mốc thắng lợi quan trọng.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>C. buộc Pháp phải công nhận các quyền dân tộc cơ bản.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>D. chung kẻ thù và đặt dưới sự lãnh đạo của Đảng Cộng sản Đông Dương.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Câu 56.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>A. tiến hành chống chế độ diệt chủng Khơme đỏ.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>B. thi hành đường lối đối ngoại hòa bình, trung lập.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>C. không giành được chính quyền từ phát xít Nhật.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>D. giành được chính quyền từ thực dân Pháp và phát xít Nhật.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Câu 57.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A. Các nước thực dân tiến hành khai thác thuộc địa.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>B. Bị các nước đế quốc trở lại tái chiếm.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>C. Tập trung phát triển kinh tế</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>D. Giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Câu 58</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A. Điều kiện khách quan thuận lợi và biết chớp thời cơ.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>B. Điều kiện khách quan thuận lợi và nhân dân nhiệt tình cách mạng.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>C. Kẻ thù đã suy yếu và được sự ủng hộ của nhân loại tiến bộ.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>D. Có sự chuẩn bị lâu dài kết hợp với chớp thời cơ.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Câu 59.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A. Khuynh hướng đấu tranh.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>B. Tổ chức lãnh đạo.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>C. Giai cấp lãnh đạo.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>D. Hình thức đấu tranh.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Câu 60</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A. Mozambique.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>B. Zimbabwe.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>C. Angola.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>D. Ai Cập.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Câu 61. Năm 1960 đã đi vào lịch sử với tên gọi là “Năm châu Phi” vì</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>A. tất cả các nước châu Phi giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>B. phong trào giải phóng dân tộc phát triển mạnh nhất.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>C. có 17 nước ở châu Phi được trao trả độc lập.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân sụp đổ ở châu Phi.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Câu 62. Sự kiện đánh dấu mốc sụp đổ về cơ bản ách thống trị của chủ nghĩa thực dân cũ và hệ thống thuộc địa của nó ở châu Phi là</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A. nước Cộng hòa Ai Cập thành lập (1953).</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>B. 17 nước châu Phi được trao trả độc lập (1960).</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>C. nước Cộng hòa nhân dân Angola thành lập (1975).</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>D. nước Cộng hòa Zimbabwe thành lập (1980).</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Câu 63</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A. cách mạng Ai Cập thành công (1953)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>B. chiến thắng Điện Biên Phủ của Việt Nam (1954).</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>C. cách mạng Cuba thành công (1959).</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>D. thắng lợi của cách mạng Việt Nam (1975).</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Câu 64</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A. chủ nghĩa thực dân kiểu cũ.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>B. chủ nghĩa đế quốc.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân kiểu mới</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Câu 65. Lịch sử gọi châu Phi là “Lục địa mới trỗi dậy” vì</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A. châu Phi là lá cờ đầu trong cuộc đấu tranh chống chủ nghĩa đế quốc, thực dân.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>B. sau Chiến tranh thế giới thứ hai, phong trào giải phóng dân tộc phát triển mạnh và hầu hết các nước ở châu Phi đã giành được độc lập.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>C. sau Chiến tranh thế giới thứ hai, cơn bão táp cách mạng giải phóng dân tộc bùng nổ ở châu Phi chống chủ nghĩa đế quốc và chủ nghĩa thực dân.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>D. phong trào giải phóng dân tộc ở châu Phi đã làm rung chuyển hệ thống thuộc địa của chủ nghĩa thực dân ở châu lục này.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Câu 66. Hình thức đấu tranh giành độc lập chủ yếu thông qua đấu tranh chính trị hợp pháp là đặc điểm của phong trào giải phóng dân tộc ở</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A. Châu Á.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>B. Châu Phi.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>C. M</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>D. Châu Âu.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Câu 67</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A. đây là khu vực có điều kiện kinh tế xã hội tương đối phát triển, ý thức dân tộc cao.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>B. chế độ độc tài thân phương Tây ở khu vực bị nhân dân oán ghét, vì bán rẻ quyền lợi dân tộc.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>C. khu vực nhiều dầu mỏ nên được Liên Xô giúp đỡ để thiết lập ảnh hưởng.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>D. kênh đào Suez đem lại nguồn thu lớn nhân dân muốn trực tiếp quản lí.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Câu 68.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A. Bắc Phi.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>B. Nam Phi.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>C. Tây Phi.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>D. Đông Phi.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Câu 69</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A. Mặt trận dân tộc giải phóng châu Phi.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>B. Tổ chức thống nhất châu Phi.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>C. Hiệp hội các nước châu Phi.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>D. Đại hội dân tộc châu Phi.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Câu 70</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A. đấu tranh nghị trường.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>B. đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>C. đấu tranh kinh tế.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>D. đấu tranh ngoại giao.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Câu 71</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A. những năm 30  của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>B. những năm 40 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>C. những năm 50 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>D. những năm 60 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Câu 72.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A. chống chế độ phân biệt đẳng cấp.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>B. chống chủ nghĩa thực dân kiểu cũ, giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>C. chống chủ nghĩa thực dân kiểu mới, giải phóng dân tộc.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>D. chống chế độ phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Câu 73</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A. Ghine.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>B. Angola.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>C. Namibia.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>D. Maroc.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Câu 74.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A. Thabo Mbeki.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>B. Nelson Mandela.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>C. Jacob Zuma.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>D. Frederik de Klerk.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Câu 75</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A. mở đầu cuộc đấu tranh chống chế độ phân biệt chủng tộc Apartheid.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>B. chấm dứt chế độ phân biệt chủng tộc Apartheid ở Nam Phi.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>C. Nam Phi hoàn thành cuộc đấu tranh chống chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>D. Namibia thoát khỏi sự thống trị của Nam Phi.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Câu 76</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A. thực dân Anh.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>B. thực dân Pháp.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>C. đế quốc M</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>D. thực dân Hà Lan.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Câu 77</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A. chế độ phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>B. chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa đế quốc.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>D. chế độ độc tài thân M</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Câu 78</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A. đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>B. kết hợp đấu tranh chính trị với đấu tranh vũ trang.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>C. đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>D. kết hợp bãi công của công nhân với đấu tranh chính trị.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Câu 79</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A. “Hòn đảo tự do”.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>B. “Lục địa mới trỗi dậy”.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>C. “Lục địa bùng cháy”.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>D. “Tiền đồn của chủ nghĩa xã hội”.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Câu 80.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A. Raúl Castro.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>B. Flugenco Batista.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>C. Fidel Castro.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>D. Che Guevara.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Câu 81</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A. cuộc cách mạng Argentina.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>B. cuộc cách mạng Cu Ba.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>C. cuộc cách mạng Venezuela.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>D. cuộc cách mạng Colombia.</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Câu 82</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A. là thuộc địa kiểu mới của M</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>B. là thuộc địa của Tây Ban Nha.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>C. sớm giành được độc lập từ thế kỉ XIX.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>D. giành độc lập bằng con đường ngoại giao.</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>3</v>
+      </c>
+      <c r="H170" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Câu 83</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A. thực dân Tây Ban Nha và Bồ Đào Nha.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>B. chính quyền độc tài thân M</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>C. chủ nghĩa phân biệt chủng tộc.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>D. chủ nghĩa thực dân cũ.</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Câu 84</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>A. mở đầu phong trào đấu tranh bảo vệ độc lập cùa các nước M</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>B. đánh dấu bước phát triển mới của phong trào đấu tranh bảo vệ độc lập của các nước M</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>C. đánh dấu sự thắng lợi hoàn toàn của phong trào đấu tranh chống thực dân mới ở M</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>D. đánh dấu chế độ độc tài hoàn toàn sụp đổ ở M</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Câu 85</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A. M</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>B. nền kinh tế có những chuyền biến mạnh mẽ.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>C. phong trào đấu tranh vũ trang bùng nổ mạnh mẽ chống chế độ độc tài thân M</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>D. phong trào đấu tranh nghị trường diễn ra mạnh mẽ.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Câu 86</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A. ngăn chặn làn sóng đấu tranh của nhân dân các nước M</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>B. ngăn chặn sự phát triển kinh tế của các nước M</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>C. ngăn chặn ảnh hưởng của cách mạng Cuba.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>D. ngăn chặn ảnh hưởng của chủ nghĩa xã hội đối với khu vực M</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Câu 87</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Multiple Choice</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A. từ năm 1945 đến cuối những năm 80 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>B. từ năm 1959 đến cuối những năm 80 của thế kỉ XX.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>C. từ năm 1959 đến năm 2000.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>D. cuối những năm 80 của thế kỉ XX đến năm 2000.</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>4</v>
+      </c>
+      <c r="H175" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,1450 +1919,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Câu 1.</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A. đã hoàn toàn kết thúc.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>B. bước vào giai đoạn kết thúc.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>C. đang diễn ra vô cùng ác liệt.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>D. bùng nổ và ngày càng lan rộng.</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Câu 2</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A. Anh, Pháp,</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>B. Đức, Italia, Nhật</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>C. Anh, Pháp, Liên Xô</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>D. Liên Xô,</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>4</v>
-      </c>
-      <c r="H41" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Câu 3.</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A. trật tự thế giới Versailles - Washington.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>B. trật tự thế giới đa cực nhiều trung tâm.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>C. trật t ự</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>D. trật tự thế giới đơn cực.</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Câu 4</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A. M</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>B. M</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>C. Trung Quốc và Liên Xô</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>D. M</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>4</v>
-      </c>
-      <c r="H43" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Câu 5</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A. bàn bạc việc tiêu diệt tận gốc phát xít Đức và quân phiệt Nhật ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>B. bàn bạc về việc duy trì hòa bình và an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>C. phân chia thành quả chiến thắng giữa các cường quốc thắng trận ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>D. khẳng định sức mạnh và vị thế siêu cường của M</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>3</v>
-      </c>
-      <c r="H44" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Câu 6.</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A. tiêu diệt chủ nghĩa phát xít Đức và chủ nghĩa quân phiệt Nhật.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>B. thành lập tổ chức Liên hợp quốc để giữ gìn hòa bình và an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>C. phân chia khu vực đóng quân và khu vực ảnh hưởng ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>D. giải quyết hậu quả chiến tranh, lập lại hòa bình an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Câu 7.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A. Tây Berlin, Tây Đức, Tây Âu, Nhật Bản, Nam Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>B. Đông Berlin, Đông Đức, Đông Âu, Nam Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>C. Tây Berlin, Tây Đức, Tây Âu, Nhật Bản, Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>D. Đông Berlin, Đông Đức, Đông Âu, Bắc Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Câu 8.</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A. Tây Berlin, Tây Đức, Tây Âu, Nhật Bản, Bắc Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>B. Đông Berlin, Đông Đức, Đông Âu, Bắc Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>C. Tây Berlin, Tây Đức, Tây Âu, Nhật Bản, Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>D. Đông Berlin, Đông Đức, Đông Âu, Nam Triều Tiên.</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Câu 9</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A. Bắc vĩ tuyến 16 là quân Trung Hoa Dân quốc, Nam vĩ tuyến 16 là quân Pháp.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>B. Bắc vĩ tuyến 16 là quân Anh, Nam vĩ tuyến 16 là quân Pháp.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>C. Bắc vĩ tuyến 16 là quân Trung Hoa Dân quốc, Nam vĩ tuyến 16 là quân Anh.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>D. Bắc vĩ tuyến 16 là quân M</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Câu 10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A. tiêu diệt tận gốc Đức, Nhật; lập tổ chức Liên</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>B. tiêu diệt tận gốc Đức, Nhật; thỏa thuận đóng quân và giải giáp quân phát xít, phân chia phạm vi ảnh hưởng ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>C. tiêu diệt phát xít Đức, quân phiệt Nhật; thành lập Hội quốc liên; phân chia phạm vi ảnh hưởng ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>D. tiêu diệt tận gốc phát xít Đức, quân phiệt Nhật; lập tổ chức Liên</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Câu 11</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A. nhanh chóng đánh bại hoàn toàn các nước phát xít.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>B. tổ chức lại trật tự thế giới sau chiến tranh.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>C. giải quyết hậu quả chiến tranh, phân chia thành quả chiến thắng.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>D. phân chia thành quả chiến thắng giữa các cường quốc thắng trận.</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Câu 12</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A. tham chiến chống Nhật ở châu Á.</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>B. cùng M</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>C. liên minh với M</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>D. hỗ trợ Anh chống Italia ở châu Phi.</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Câu 13.</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A. giải giáp quân phát xít và phân chia phạm vi ảnh hưởng giữa các cường quốc thắng trận ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>B. giải giáp quân đội phát xít và thành lập chính phủ cho các nước được giải phóng ở châu Âu và châu Á.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>C. giải giáp quân đội phát xít và hỗ trợ các nước ở châu Âu và châu Á bảo đảm an ninh sau chiến tranh.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>D. giải giáp quân đội phát xít và giúp các nước ở châu Âu và châu Á phát triển kinh tế sau chiến tranh.</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Câu 14</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A. sự phân chia thế giới sau Chiến tranh thế giới thứ hai và tái xâm lược thuộc địa của các đế quốc.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>B. sự phân chia thế giới hai cực và sự thành lập tổ chức Liên hiệp quốc.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>C. sự đối đầu gay gắt giữa M</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>D. sự phân chia phạm vi ảnh hưởng dẫn tới sự đối đầu Đông – Tây và tình trạng Chiến tranh lạnh.</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>4</v>
-      </c>
-      <c r="H53" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Câu 15</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A. Những quyết định của Hội nghị Yalta.</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>B. Những thỏa thuận của ba cường quốc ở Postdam và Paris.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>C. Những quyết định của Hội nghị Yalta và những thỏa thuận sau đó của ba cường quốc.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>D. Những quyết định của các nước ủy viên thường trực Hội đồng Bảo an Liên hiệp quốc.</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>3</v>
-      </c>
-      <c r="H54" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Câu 16</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A. Liên Xô tan rã.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>B. cách mạng Trung Quốc thắng lợi.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>C. Tây Âu và Nhật vươn lên thành 2 trung tâm kinh tế - tài chính.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>D. các nước Tây Âu thoát khỏi ảnh hưởng của M</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Câu 1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A. Hình thành khuôn khổ của trật tự thế giới mới, chi phối mọi quan hệ quốc tế sau chiến tranh.</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>B. Thế giới bị phân chia làm hai phe: tư bản chủ nghĩa và xã hội chủ nghĩa, đối lập về mọi mặt.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>C. Sự đối đầu gay gắt giữa M</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>D. Quan hệ quốc tế đều xoay quanh những vấn đề mà hội nghị Yalta quyết định.</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Câu 18.</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A. Tổ chức Hiệp ước Bắc Đại Tây dương.</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>B. Tổ chức</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>C. Tổ chức Liên hiệp quốc.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>D. Tổ chức Liên minh châu Âu.</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Câu 19.</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A. Tuyên bố tổ chức</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>B. Thông qua bản Hiến chương thành lập tổ chức Liên hiệp quốc.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>C. Thỏa thuận thành lập các cơ quan của tổ chức Liên hiệp quốc.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>D. Hình thành khối Đồng minh chống phát xít.</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>2</v>
-      </c>
-      <c r="H58" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Câu 20</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A. tiêu diệt chủ nghĩa phát xít và quân phiệt.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>B. thúc đẩy quan hệ hữu nghị, hợp tác giữa các nước.</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>C. duy trì hòa bình và an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>D. giải quyết các tranh chấp và xung đột quốc tế.</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Câu 22.</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A. tôn trọng bình đẳng chủ quyền quốc gia và quyền</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>B. tôn trọng toàn vẹn lãnh thổ và độc lập chính trị của các nước.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>C. không can thiệp vào công việc nội bộ của các nước.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>D. giải quyết các tranh chấp xung đột bằng phương pháp hòa bình.</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Câu 23.</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A. Tôn trọng bình đẳng chủ quyền quốc gia và quyền</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>B. Không can thiệp vào công việc nội bộ của các nước.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>C. Hợp tác phát triển có hiệu quả trong các lĩnh vực kinh tế, văn hóa, xã hội.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>D. Giải quyết các tranh chấp xung đột bằng phương pháp hòa bình.</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Câu 24</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A. M</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>B. M</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>C. Nga, M</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>D. Liên Xô, M</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>3</v>
-      </c>
-      <c r="H62" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Câu 25</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A. 3 cơ quan chính.</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>B. 5 cơ quan chính.</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>C. 6 cơ quan chính.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>D. 8 cơ quan chính.</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>3</v>
-      </c>
-      <c r="H63" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Câu 26.</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A. Hội đồng Bảo an.</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>B. Đại hội đồng.</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>C. Ban thư kí.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>D. Tòa án quốc tế.</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Câu 27</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A. tôn trọng bình đẳng chủ quyền giữa các quốc gia và quyền tự quyết của các dân tộc.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>B. tôn trọng toàn vẹn lãnh thổ và độc lập chính trị của tất cả các nước.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>C. giải quyết tranh chấp quốc tế bằng biện pháp hòa bình.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>D. chung sống hòa bình và sự nhất trí giữa năm ủy viên thường trực Hội đồng Bảo an.</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>4</v>
-      </c>
-      <c r="H65" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Câu 28</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A. đã đề ra nguyên tắc hoạt động của</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>B. là cơ sở để các nước gia nhập tổ chức</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>C. nêu rõ mục đích và nguyên tắc hoạt động của</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>D. quy định bộ máy tổ chức và</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>3</v>
-      </c>
-      <c r="H66" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Câu 29</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A. UNICEF.</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>B. UNESCO.</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>C. UNFPA.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>D. UNDP.</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Câu 30</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A. tạo nên sự cân bằng của trật tự hai cực Yalta</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>B. tránh tranh giành thuộc địa của các nước lớn.</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>C. đảm bảo trật tự thế giới được dung hòa giữa các nước lớn.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>D. phát triển mối quan hệ hữu nghị hợp tác giữa các nước.</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Câu 31</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A. duy trì trật tự hai cực Yalta ổn đinh.</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>B. tránh xung đột vũ trang gây nên chiến tranh thế giới thứ ba.</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>C. tôn trọng độc lập chủ quyền của các quốc gia.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>D. hạn chế xung đột vũ trang, duy trì hòa bình, an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>4</v>
-      </c>
-      <c r="H69" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Câu 32</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A. Bình đẳng chủ quyền giữa các quốc gia và quyền tự quyết của các dân tộc.</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>B. Tôn trọng toàn vẹn lãnh thổ và độc lập chính trị của tất cả các nước.</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>C. Giải quyết tranh chấp quốc tế bằng biện pháp hòa bình.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>D. Không can thiệp vào công việc nội bộ của các nước.</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>3</v>
-      </c>
-      <c r="H70" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Câu 33</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A. cân bằng trật tự thế giới mới và duy trì hòa bình an ninh thế giới.</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>B. thiết lập trật tự hai cực Yalta và trật tự đa cực.</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>C. duy trì hòa bình, an ninh thế giới và giải quyết tranh chấp quốc tế.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>D. tạo nên thế cân bằng giữa các nước và giải quyết tranh chấp quốc tế.</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>3</v>
-      </c>
-      <c r="H71" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Câu 34</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A. gồm đại diện của tất cả các quốc gia thành viên, có quyền bình đẳng.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>B. giữ vai trò trọng yếu trong việc duy trì hòa bình, an ninh.</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>C. đứng đầu là Tổng thư kí với nhiệm kì 5 năm.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>D. giữ vai trò thúc đẩy mối quan hệ hữu nghị, hợp tác giữa các nước.</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Câu 35</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A. phải quá nửa số thành viên Hội đồng tán thành.</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>B. phải có 2/3 số thành viên tán thành.</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>C. phải được ¾ số thành viên tán thành.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>D. phải có sự nhất trí của 5 Ủy viên thường trực.</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>4</v>
-      </c>
-      <c r="H73" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Câu 36</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A. Hội đồng Bảo an phục tùng Đại hội đồng.</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>B. Hội đồng Bảo an chỉ phục tùng một số vấn đề quan trọng.</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>C. Hội đồng Bảo an không phục tùng Đại hội đồng.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>D. Đại hội đồng phục tùng Hội đồng Bảo an.</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
-      <c r="H74" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Câu 37</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A. Hội đồng bảo an bầu ra dựa trên sự giới thiệu của Đại hội đồng.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>B. Đại hội đồng bầu ra theo sự giới thiệu của Hội đồng Bảo an.</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>C. Ban thư kí bầu ra theo sự giới thiệu của Hội đồng Bảo an.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>D. Ban thư kí bầu ra được Đại hội đồng và Hội đồng Bảo an đồng ý.</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>2</v>
-      </c>
-      <c r="H75" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Câu 38</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A. cải tổ về hành chính, hình thành trật tự thế giới mới.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>B. cải tổ toàn diện cho phù hợp với trật tự thế giới mới đang hình thành</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>C. dân chủ hóa trong hoạt động, thúc đẩy tổ chức phát triển phù hợp với trật tự mới.</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>D. cải tổ toàn diện cho phù hợp với hoàn cảnh của tổ chức, tránh đối đầu các nước lớn.</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>3</v>
-      </c>
-      <c r="H76" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Câu 39</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Multiple Choice</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A. diễn đàn quốc tế vừa hợp tác vừa đấu tranh nhằm duy trì hòa bình và an ninh thế giới, giải quyết tranh chấp quốc tế và phát triển mối quan hệ hữu nghị và hợp tác giữa các nước thành viên.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>B. diễn đàn quốc tế vừa hợp tác vừa đấu tranh nhằm duy trì hòa bình và an ninh thế giới, phát triển mối quan hệ hữu nghị và hợp tác giữa các nước thành viên.</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>C. thúc đẩy quan hệ hữu nghị và hợp tác giữa các nước thành viên trên nhiều lĩnh vực kinh tế, văn hóa, giáo dục, khoa học kĩ thuật... .</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>D. chống chủ nghĩa khủng bố, duy trì hòa bình và an ninh thế giới, ngăn chặn các đại dịch lớn trên thế giới và bảo vệ thành công các di sản văn hóa thế giới.</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
